--- a/SPPSApi/Doc/Template/FS1210_Import.xlsx
+++ b/SPPSApi/Doc/Template/FS1210_Import.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="80000" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -59,6 +59,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -420,7 +421,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
